--- a/Common/Style/Resource/Template/Import_Mail.xlsx
+++ b/Common/Style/Resource/Template/Import_Mail.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20382"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\abteilung_software\Projekte\Schulsoftware\30 Projektrealisierung\30.2 Einstieg und Schulung\!Datenimport\Datenimport feste Spalten\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\kundwzwickau.de\kuw\abteilung_software\Projekte\Schulsoftware\30 Projektrealisierung\30.2 Einstieg und Schulung\!Datenimport\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7A1C10E-370F-4F67-9AE0-A051F92CA099}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E09FA48-6F0B-4DC5-B7C0-F21B9AE002AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
   <si>
     <t>Vorname</t>
   </si>
@@ -55,6 +55,9 @@
   </si>
   <si>
     <t>Recovery-Mail</t>
+  </si>
+  <si>
+    <t>01.01.2020</t>
   </si>
 </sst>
 </file>
@@ -105,19 +108,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Link" xfId="1" builtinId="8"/>
@@ -407,64 +407,64 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="13.85546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="30.42578125" style="1" customWidth="1"/>
-    <col min="5" max="6" width="30.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="10.28515625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="30.42578125" style="3" customWidth="1"/>
+    <col min="5" max="6" width="30.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="2">
-        <v>43831</v>
-      </c>
-      <c r="D2" s="3" t="s">
+      <c r="C2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="4" t="s">
         <v>3</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="rYH2wp4wDkjBIqbBFfhtVMkbN9wpcSgLXcBsuvnYpHgrBw58RAXP0ZxP5dMdLzWXtALtvuGorQhM2UShUHosQw==" saltValue="Gj/QRkSrA5HP5cSnFLAf+g==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="gGSlqYbUvvB2RjYT5Y1DehRHtO+8e229XqE2x8KyOkxLxipd28zrWRVI2s6frBks2eaO5OoixQ+5jCWV/fOyow==" saltValue="i44xT5DsLUd9GDRCNGggqA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <autoFilter ref="A1:F1" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>

--- a/Common/Style/Resource/Template/Import_Mail.xlsx
+++ b/Common/Style/Resource/Template/Import_Mail.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\kundwzwickau.de\kuw\abteilung_software\Projekte\Schulsoftware\30 Projektrealisierung\30.2 Einstieg und Schulung\!Datenimport\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E09FA48-6F0B-4DC5-B7C0-F21B9AE002AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78EDBCF2-5CEF-4FF6-A81D-CE78B7EDBC5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -110,8 +110,8 @@
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyProtection="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
@@ -407,7 +407,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -464,7 +464,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="gGSlqYbUvvB2RjYT5Y1DehRHtO+8e229XqE2x8KyOkxLxipd28zrWRVI2s6frBks2eaO5OoixQ+5jCWV/fOyow==" saltValue="i44xT5DsLUd9GDRCNGggqA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection sheet="1" objects="1" scenarios="1" formatColumns="0" formatRows="0" insertRows="0" deleteRows="0" sort="0" autoFilter="0"/>
   <autoFilter ref="A1:F1" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
